--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.08856300000001</v>
+        <v>118.6930263333333</v>
       </c>
       <c r="H2">
-        <v>279.265689</v>
+        <v>356.079079</v>
       </c>
       <c r="I2">
-        <v>0.1947836339852848</v>
+        <v>0.2696481350657977</v>
       </c>
       <c r="J2">
-        <v>0.1947836339852847</v>
+        <v>0.2696481350657977</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N2">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O2">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P2">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q2">
-        <v>4100.426492505102</v>
+        <v>168.2088291582838</v>
       </c>
       <c r="R2">
-        <v>36903.83843254591</v>
+        <v>1513.879462424554</v>
       </c>
       <c r="S2">
-        <v>0.07082610623978342</v>
+        <v>0.006441704545569481</v>
       </c>
       <c r="T2">
-        <v>0.07082610623978342</v>
+        <v>0.006441704545569481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.08856300000001</v>
+        <v>118.6930263333333</v>
       </c>
       <c r="H3">
-        <v>279.265689</v>
+        <v>356.079079</v>
       </c>
       <c r="I3">
-        <v>0.1947836339852848</v>
+        <v>0.2696481350657977</v>
       </c>
       <c r="J3">
-        <v>0.1947836339852847</v>
+        <v>0.2696481350657977</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.678962</v>
       </c>
       <c r="O3">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P3">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q3">
-        <v>207.244991637202</v>
+        <v>264.2487375151109</v>
       </c>
       <c r="R3">
-        <v>1865.204924734818</v>
+        <v>2378.238637635998</v>
       </c>
       <c r="S3">
-        <v>0.003579714408291209</v>
+        <v>0.01011963701388298</v>
       </c>
       <c r="T3">
-        <v>0.003579714408291208</v>
+        <v>0.01011963701388298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.08856300000001</v>
+        <v>118.6930263333333</v>
       </c>
       <c r="H4">
-        <v>279.265689</v>
+        <v>356.079079</v>
       </c>
       <c r="I4">
-        <v>0.1947836339852848</v>
+        <v>0.2696481350657977</v>
       </c>
       <c r="J4">
-        <v>0.1947836339852847</v>
+        <v>0.2696481350657977</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N4">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O4">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P4">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q4">
-        <v>6969.18694424108</v>
+        <v>6608.721792496169</v>
       </c>
       <c r="R4">
-        <v>62722.68249816972</v>
+        <v>59478.49613246552</v>
       </c>
       <c r="S4">
-        <v>0.1203778133372101</v>
+        <v>0.2530867935063452</v>
       </c>
       <c r="T4">
-        <v>0.1203778133372101</v>
+        <v>0.2530867935063452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>459.817765</v>
       </c>
       <c r="I5">
-        <v>0.320716001877666</v>
+        <v>0.3482063679522526</v>
       </c>
       <c r="J5">
-        <v>0.3207160018776659</v>
+        <v>0.3482063679522526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N5">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O5">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P5">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q5">
-        <v>6751.452181905831</v>
+        <v>217.2141314621545</v>
       </c>
       <c r="R5">
-        <v>60763.06963715247</v>
+        <v>1954.92718315939</v>
       </c>
       <c r="S5">
-        <v>0.1166169105536977</v>
+        <v>0.008318405549836025</v>
       </c>
       <c r="T5">
-        <v>0.1166169105536977</v>
+        <v>0.008318405549836025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>459.817765</v>
       </c>
       <c r="I6">
-        <v>0.320716001877666</v>
+        <v>0.3482063679522526</v>
       </c>
       <c r="J6">
-        <v>0.3207160018776659</v>
+        <v>0.3482063679522526</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>6.678962</v>
       </c>
       <c r="O6">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P6">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q6">
         <v>341.2339310399922</v>
@@ -821,10 +821,10 @@
         <v>3071.10537935993</v>
       </c>
       <c r="S6">
-        <v>0.005894087041099994</v>
+        <v>0.01306785247648583</v>
       </c>
       <c r="T6">
-        <v>0.005894087041099993</v>
+        <v>0.01306785247648584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>459.817765</v>
       </c>
       <c r="I7">
-        <v>0.320716001877666</v>
+        <v>0.3482063679522526</v>
       </c>
       <c r="J7">
-        <v>0.3207160018776659</v>
+        <v>0.3482063679522526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N7">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O7">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P7">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q7">
-        <v>11474.93620159014</v>
+        <v>8534.080948160346</v>
       </c>
       <c r="R7">
-        <v>103274.4258143113</v>
+        <v>76806.72853344311</v>
       </c>
       <c r="S7">
-        <v>0.1982050042828682</v>
+        <v>0.3268201099259307</v>
       </c>
       <c r="T7">
-        <v>0.1982050042828682</v>
+        <v>0.3268201099259307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>133.9846036666667</v>
+        <v>116.0670876666667</v>
       </c>
       <c r="H8">
-        <v>401.953811</v>
+        <v>348.201263</v>
       </c>
       <c r="I8">
-        <v>0.2803567609081197</v>
+        <v>0.2636824984472209</v>
       </c>
       <c r="J8">
-        <v>0.2803567609081197</v>
+        <v>0.2636824984472209</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N8">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O8">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P8">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q8">
-        <v>5901.842296809288</v>
+        <v>164.4874136530376</v>
       </c>
       <c r="R8">
-        <v>53116.58067128359</v>
+        <v>1480.386722877338</v>
       </c>
       <c r="S8">
-        <v>0.1019417151577537</v>
+        <v>0.006299189677021533</v>
       </c>
       <c r="T8">
-        <v>0.1019417151577537</v>
+        <v>0.006299189677021533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>133.9846036666667</v>
+        <v>116.0670876666667</v>
       </c>
       <c r="H9">
-        <v>401.953811</v>
+        <v>348.201263</v>
       </c>
       <c r="I9">
-        <v>0.2803567609081197</v>
+        <v>0.2636824984472209</v>
       </c>
       <c r="J9">
-        <v>0.2803567609081197</v>
+        <v>0.2636824984472209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>6.678962</v>
       </c>
       <c r="O9">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P9">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q9">
-        <v>298.2926921582424</v>
+        <v>258.4025559921118</v>
       </c>
       <c r="R9">
-        <v>2684.634229424182</v>
+        <v>2325.623003929006</v>
       </c>
       <c r="S9">
-        <v>0.005152368892349899</v>
+        <v>0.009895752368354114</v>
       </c>
       <c r="T9">
-        <v>0.005152368892349898</v>
+        <v>0.009895752368354115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>133.9846036666667</v>
+        <v>116.0670876666667</v>
       </c>
       <c r="H10">
-        <v>401.953811</v>
+        <v>348.201263</v>
       </c>
       <c r="I10">
-        <v>0.2803567609081197</v>
+        <v>0.2636824984472209</v>
       </c>
       <c r="J10">
-        <v>0.2803567609081197</v>
+        <v>0.2636824984472209</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N10">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O10">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P10">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q10">
-        <v>10030.91809036787</v>
+        <v>6462.511870748774</v>
       </c>
       <c r="R10">
-        <v>90278.26281331079</v>
+        <v>58162.60683673896</v>
       </c>
       <c r="S10">
-        <v>0.1732626768580161</v>
+        <v>0.2474875564018452</v>
       </c>
       <c r="T10">
-        <v>0.1732626768580161</v>
+        <v>0.2474875564018452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.56176266666667</v>
+        <v>52.14473966666667</v>
       </c>
       <c r="H11">
-        <v>292.685288</v>
+        <v>156.434219</v>
       </c>
       <c r="I11">
-        <v>0.2041436032289296</v>
+        <v>0.1184629985347288</v>
       </c>
       <c r="J11">
-        <v>0.2041436032289296</v>
+        <v>0.1184629985347288</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>44.04866033333334</v>
+        <v>1.417175333333333</v>
       </c>
       <c r="N11">
-        <v>132.145981</v>
+        <v>4.251526</v>
       </c>
       <c r="O11">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="P11">
-        <v>0.3636142564479216</v>
+        <v>0.02388929759887871</v>
       </c>
       <c r="Q11">
-        <v>4297.464945225282</v>
+        <v>73.89823881868824</v>
       </c>
       <c r="R11">
-        <v>38677.18450702753</v>
+        <v>665.0841493681941</v>
       </c>
       <c r="S11">
-        <v>0.07422952449668675</v>
+        <v>0.002829997826451668</v>
       </c>
       <c r="T11">
-        <v>0.07422952449668675</v>
+        <v>0.002829997826451669</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.56176266666667</v>
+        <v>52.14473966666667</v>
       </c>
       <c r="H12">
-        <v>292.685288</v>
+        <v>156.434219</v>
       </c>
       <c r="I12">
-        <v>0.2041436032289296</v>
+        <v>0.1184629985347288</v>
       </c>
       <c r="J12">
-        <v>0.2041436032289296</v>
+        <v>0.1184629985347288</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>6.678962</v>
       </c>
       <c r="O12">
-        <v>0.01837790134135009</v>
+        <v>0.0375290450698413</v>
       </c>
       <c r="P12">
-        <v>0.01837790134135009</v>
+        <v>0.03752904506984131</v>
       </c>
       <c r="Q12">
-        <v>217.2037685012284</v>
+        <v>116.0909115778531</v>
       </c>
       <c r="R12">
-        <v>1954.833916511056</v>
+        <v>1044.818204200678</v>
       </c>
       <c r="S12">
-        <v>0.003751730999608985</v>
+        <v>0.004445803211118381</v>
       </c>
       <c r="T12">
-        <v>0.003751730999608985</v>
+        <v>0.004445803211118382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.56176266666667</v>
+        <v>52.14473966666667</v>
       </c>
       <c r="H13">
-        <v>292.685288</v>
+        <v>156.434219</v>
       </c>
       <c r="I13">
-        <v>0.2041436032289296</v>
+        <v>0.1184629985347288</v>
       </c>
       <c r="J13">
-        <v>0.2041436032289296</v>
+        <v>0.1184629985347288</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>74.86619966666667</v>
+        <v>55.67910766666667</v>
       </c>
       <c r="N13">
-        <v>224.598599</v>
+        <v>167.037323</v>
       </c>
       <c r="O13">
-        <v>0.6180078422107282</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="P13">
-        <v>0.6180078422107284</v>
+        <v>0.93858165733128</v>
       </c>
       <c r="Q13">
-        <v>7304.078403634613</v>
+        <v>2903.372574150638</v>
       </c>
       <c r="R13">
-        <v>65736.70563271153</v>
+        <v>26130.35316735574</v>
       </c>
       <c r="S13">
-        <v>0.1261623477326339</v>
+        <v>0.1111871974971587</v>
       </c>
       <c r="T13">
-        <v>0.1261623477326339</v>
+        <v>0.1111871974971587</v>
       </c>
     </row>
   </sheetData>
